--- a/dati_coltivazioni.xlsx
+++ b/dati_coltivazioni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\git\ProgettoWS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaeta\Desktop\uni\websemantico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6083111-EF2A-4E34-A2BB-0B45A4A0D01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2431E801-CD0F-4069-A939-EEDA7C6F8BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{18EEBC40-043F-4DE1-8775-6A109CD9D24F}"/>
+    <workbookView xWindow="3585" yWindow="1950" windowWidth="22095" windowHeight="10890" xr2:uid="{18EEBC40-043F-4DE1-8775-6A109CD9D24F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>nome</t>
   </si>
@@ -87,9 +87,6 @@
     <t>terreno argilloso</t>
   </si>
   <si>
-    <t>fino a 1000m</t>
-  </si>
-  <si>
     <t>bassa, media</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Triticum durum</t>
   </si>
   <si>
-    <t>fino a 1400m</t>
-  </si>
-  <si>
     <t>permabile</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>Oryza sativa subsp. Japonica</t>
   </si>
   <si>
-    <t>fino a 2600m</t>
-  </si>
-  <si>
     <t>bassa</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
   </si>
   <si>
     <t>Zea mays</t>
-  </si>
-  <si>
-    <t>fino a 600m</t>
   </si>
   <si>
     <t>ben drenato</t>
@@ -176,13 +164,100 @@
   </si>
   <si>
     <t>L'apparato radicale è del tipo fascicolato e presenta delle radici Seminali e Avventizie. Le radici seminali sono quelle che si originano, in numero da 3 a 8, dall'embrione: sono sottili, ricchissime di peli radicali e molto ramificati. Le radici avventizie si sviluppano successivamente a quelle seminali a partire da quando la piantina ha formato la 3ª/4ª foglia. Il fusto del frumento è un culmo costituito da nodi e internodi; è provvisto di foglie e all'estremità inferiore di infiorescenze. La granella o chicco del frumento è una cariosside, ovvero non ha semi distinti dal resto dell'involucro. Essa è un frutto secco indeiscente, ossia non si apre a maturazione completa.</t>
+  </si>
+  <si>
+    <t>vite</t>
+  </si>
+  <si>
+    <t>orzo</t>
+  </si>
+  <si>
+    <t>avena</t>
+  </si>
+  <si>
+    <t>segale</t>
+  </si>
+  <si>
+    <t>miglio</t>
+  </si>
+  <si>
+    <t>lino</t>
+  </si>
+  <si>
+    <t>Linum usitatissimum</t>
+  </si>
+  <si>
+    <t>Il filamento di lino è in media lungo 50 cm ed è costituito da fibrille lunghe circa 30 mm. La fibra ha un diametro apparente di 15-18 µ ed ha un aspetto cilindrico a sezione poligonale con un canale centrale molto più piccolo che nel cotone.</t>
+  </si>
+  <si>
+    <t>mediamente umido</t>
+  </si>
+  <si>
+    <t>Vitis vinifera</t>
+  </si>
+  <si>
+    <t>Tutte le gemme della vite sono miste, con formazione di germogli ed infiorescenze. Le foglie, dotate di un lungo picciolo, sono grandi e palmate, con lembo intero o suddiviso in 3-5 lobi, di colore verde più o meno intenso a seconda della varietà, mentre la pagina inferiore è più chiara e può essere ricoperta di peli.</t>
+  </si>
+  <si>
+    <t>ottimo drenaggio</t>
+  </si>
+  <si>
+    <t>terreno sassoso</t>
+  </si>
+  <si>
+    <t>Hordeum vulgare</t>
+  </si>
+  <si>
+    <t>Il corredo cromosomico dell'orzo è 2n = 14. Il culmo è cilindrico, cavo formato da 5-8 internodi; l'altezza può superare i 100 cm. Alterne, distiche; lamina lanceolata con superficie cerosa, la ligula è molto ridotta e le auricole sono glabre, molto sviluppate tanto da sovrapporsi e abbracciare il culmo</t>
+  </si>
+  <si>
+    <t>fosforoso</t>
+  </si>
+  <si>
+    <t>Avena sativa</t>
+  </si>
+  <si>
+    <t>La pianta, Avena Sativa, o avena comune, fa parte della famiglia delle graminacee. La pianta dell'avena presenta un fusto cavo e sottile con diverse ramificazioni. Le sue foglie sono allungate. I fiori si sviluppano a gruppi di piccole spighe che producono le cariossidi, dei piccoli frutti secchi ricchi di amido</t>
+  </si>
+  <si>
+    <t>fino a 1500</t>
+  </si>
+  <si>
+    <t>fino a 1000</t>
+  </si>
+  <si>
+    <t>fino a 1400</t>
+  </si>
+  <si>
+    <t>fino a 26000</t>
+  </si>
+  <si>
+    <t>fino a 600</t>
+  </si>
+  <si>
+    <t>fino a 2000</t>
+  </si>
+  <si>
+    <t>Secale cereale</t>
+  </si>
+  <si>
+    <t>La segale presenta dei caratteri botanici simili a quelli del frumento. Da questo si distingue perché la piantina ha una ligula sprovvista delle appendici falciformi abbraccianti il culmo, comuni al frumento e all'orzo, ed inoltre la ligula stessa è corta, dentata a denti brevi e triangolari</t>
+  </si>
+  <si>
+    <t>sabbioso</t>
+  </si>
+  <si>
+    <t>Panicum miliaceum</t>
+  </si>
+  <si>
+    <t>L'altezza della pianta può variare da 0,6 a 1,2 m, la spiga da 3 a 13 cm. I semi possono essere bianchi, giallognoli, bruni, verdi, blu ardesia o rossi. Il peso dei 1000 semi è mediamente di 2,6 g.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +278,11 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,13 +305,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -546,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF9BC03-95D5-47A1-9347-334CDC7056E4}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,10 +687,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O1" s="3"/>
     </row>
@@ -619,10 +702,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -634,25 +717,25 @@
         <v>600</v>
       </c>
       <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>10</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
       </c>
       <c r="O2">
         <v>37</v>
@@ -663,16 +746,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
       </c>
       <c r="F3">
         <v>400</v>
@@ -681,25 +764,25 @@
         <v>900</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="O3">
         <v>23</v>
@@ -707,34 +790,34 @@
     </row>
     <row r="4" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>600</v>
       </c>
       <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
       </c>
       <c r="M4">
         <v>13</v>
@@ -745,31 +828,31 @@
     </row>
     <row r="5" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M5">
         <v>13</v>
@@ -780,37 +863,301 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M6">
         <v>10</v>
       </c>
       <c r="N6">
         <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>400</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/dati_coltivazioni.xlsx
+++ b/dati_coltivazioni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaeta\Desktop\uni\websemantico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\git\ProgettoWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2431E801-CD0F-4069-A939-EEDA7C6F8BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FB67CF-BDC9-4EF6-A832-C41F9D1E1E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="1950" windowWidth="22095" windowHeight="10890" xr2:uid="{18EEBC40-043F-4DE1-8775-6A109CD9D24F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{18EEBC40-043F-4DE1-8775-6A109CD9D24F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF9BC03-95D5-47A1-9347-334CDC7056E4}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,6 +647,7 @@
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
